--- a/results/voters=50_projects=25_true-rankings=2_runs=1_costs-dist=betavariate/threshold_approval.xlsx
+++ b/results/voters=50_projects=25_true-rankings=2_runs=1_costs-dist=betavariate/threshold_approval.xlsx
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="b">
         <v>1</v>
@@ -732,28 +732,28 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -780,22 +780,22 @@
         <v>1</v>
       </c>
       <c r="R4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
       </c>
       <c r="U4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
       </c>
       <c r="W4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="Z4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -817,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -853,13 +853,13 @@
         <v>1</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="b">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="T5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="b">
         <v>1</v>
@@ -880,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="X5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="b">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -920,31 +920,31 @@
         <v>1</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
       </c>
       <c r="R6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="b">
         <v>1</v>
@@ -953,22 +953,22 @@
         <v>0</v>
       </c>
       <c r="U6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
       </c>
       <c r="W6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
       </c>
       <c r="Y6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="Z7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -1090,49 +1090,49 @@
         <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
       </c>
       <c r="X8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="b">
         <v>0</v>
       </c>
       <c r="Z8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1142,28 +1142,28 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="b">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="b">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1333,46 +1333,46 @@
         <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="b">
         <v>1</v>
@@ -1388,22 +1388,22 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -1494,31 +1494,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
       </c>
       <c r="O13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="b">
         <v>1</v>
       </c>
       <c r="R13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         <v>1</v>
       </c>
       <c r="U13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="b">
         <v>1</v>
       </c>
       <c r="W13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="b">
         <v>1</v>
       </c>
       <c r="Y13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1564,61 +1564,61 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="b">
         <v>0</v>
       </c>
       <c r="R14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="b">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1667,25 +1667,25 @@
         <v>1</v>
       </c>
       <c r="M15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
       </c>
       <c r="R15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="b">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Z15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1716,28 +1716,28 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1761,28 +1761,28 @@
         <v>1</v>
       </c>
       <c r="Q16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
       <c r="S16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
       </c>
       <c r="X16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="b">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1822,31 +1822,31 @@
         <v>1</v>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="b">
         <v>1</v>
@@ -1855,22 +1855,22 @@
         <v>0</v>
       </c>
       <c r="U17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
       </c>
       <c r="Y17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1883,13 +1883,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1907,13 +1907,13 @@
         <v>1</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="b">
         <v>1</v>
       </c>
       <c r="T18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="b">
         <v>1</v>
       </c>
       <c r="V18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="b">
         <v>1</v>
       </c>
       <c r="X18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="b">
         <v>1</v>
@@ -1962,25 +1962,25 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="Y19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="b">
         <v>1</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2059,19 +2059,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
       </c>
       <c r="Q20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
@@ -2101,19 +2101,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
       </c>
       <c r="Y20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2147,19 +2147,19 @@
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2168,37 +2168,37 @@
         <v>1</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="b">
         <v>1</v>
       </c>
       <c r="R21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="b">
         <v>1</v>
       </c>
       <c r="Z21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2217,19 +2217,19 @@
         <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -2256,22 +2256,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="b">
         <v>1</v>
       </c>
       <c r="U22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="b">
         <v>1</v>
       </c>
       <c r="W22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="b">
         <v>1</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2290,19 +2290,19 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -2320,49 +2320,49 @@
         <v>0</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="b">
         <v>0</v>
       </c>
       <c r="R23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="b">
         <v>0</v>
       </c>
       <c r="Z23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2381,25 +2381,25 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
@@ -2420,31 +2420,31 @@
         <v>0</v>
       </c>
       <c r="R24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="b">
         <v>0</v>
       </c>
       <c r="U24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
       </c>
       <c r="W24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
       </c>
       <c r="Y24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2454,79 +2454,79 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -2560,31 +2560,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
       </c>
       <c r="O26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -2593,22 +2593,22 @@
         <v>1</v>
       </c>
       <c r="U26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="b">
         <v>1</v>
       </c>
       <c r="W26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="b">
         <v>1</v>
       </c>
       <c r="Y26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2618,16 +2618,16 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2639,52 +2639,52 @@
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
       </c>
       <c r="N27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="b">
         <v>1</v>
       </c>
       <c r="S27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="b">
         <v>1</v>
       </c>
       <c r="U27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="b">
         <v>1</v>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -2709,67 +2709,67 @@
         <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="b">
         <v>1</v>
       </c>
       <c r="S28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="b">
         <v>1</v>
@@ -2782,79 +2782,79 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
       </c>
       <c r="M29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="b">
         <v>1</v>
       </c>
       <c r="S29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" t="b">
         <v>0</v>
       </c>
       <c r="X29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2864,79 +2864,79 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
         <v>0</v>
       </c>
       <c r="Q30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="b">
         <v>1</v>
       </c>
       <c r="Y30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2955,16 +2955,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2973,49 +2973,49 @@
         <v>0</v>
       </c>
       <c r="K31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
       </c>
       <c r="M31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="b">
         <v>1</v>
       </c>
       <c r="S31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" t="b">
         <v>0</v>
       </c>
       <c r="X31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="b">
         <v>1</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -3049,37 +3049,37 @@
         <v>1</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
       </c>
       <c r="N32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
         <v>0</v>
       </c>
       <c r="Q32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="b">
         <v>1</v>
       </c>
       <c r="S32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="b">
         <v>1</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="b">
         <v>1</v>
@@ -3110,49 +3110,49 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="b">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>1</v>
       </c>
       <c r="S33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="b">
         <v>1</v>
       </c>
       <c r="U33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" t="b">
         <v>1</v>
       </c>
       <c r="W33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="b">
         <v>1</v>
@@ -3201,16 +3201,16 @@
         <v>1</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -3219,22 +3219,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="b">
         <v>0</v>
@@ -3243,25 +3243,25 @@
         <v>1</v>
       </c>
       <c r="S34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" t="b">
         <v>0</v>
       </c>
       <c r="X34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" t="b">
         <v>1</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" t="b">
         <v>0</v>
@@ -3359,22 +3359,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -3383,22 +3383,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="b">
         <v>0</v>
@@ -3407,28 +3407,28 @@
         <v>1</v>
       </c>
       <c r="S36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" t="b">
         <v>0</v>
       </c>
       <c r="X36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3438,76 +3438,76 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="b">
         <v>1</v>
       </c>
       <c r="O37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
         <v>0</v>
       </c>
       <c r="Q37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" t="b">
         <v>1</v>
       </c>
       <c r="S37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="b">
         <v>1</v>
       </c>
       <c r="U37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" t="b">
         <v>1</v>
       </c>
       <c r="Y37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="b">
         <v>1</v>
@@ -3520,22 +3520,22 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -3544,22 +3544,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
       </c>
       <c r="N38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="b">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="b">
         <v>0</v>
@@ -3602,22 +3602,22 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -3626,22 +3626,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
       <c r="N39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" t="b">
         <v>0</v>
@@ -3684,76 +3684,76 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="b">
         <v>1</v>
       </c>
       <c r="O40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
         <v>0</v>
       </c>
       <c r="Q40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" t="b">
         <v>1</v>
       </c>
       <c r="S40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" t="b">
         <v>1</v>
       </c>
       <c r="U40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" t="b">
         <v>1</v>
       </c>
       <c r="Y40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="b">
         <v>1</v>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3775,67 +3775,67 @@
         <v>1</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
       </c>
       <c r="K41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="b">
         <v>1</v>
       </c>
       <c r="M41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="b">
         <v>1</v>
       </c>
       <c r="S41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" t="b">
         <v>0</v>
       </c>
       <c r="X41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41" t="b">
         <v>1</v>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>1</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="b">
         <v>1</v>
@@ -3887,13 +3887,13 @@
         <v>1</v>
       </c>
       <c r="O42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" t="b">
         <v>1</v>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" t="b">
         <v>1</v>
@@ -3930,37 +3930,37 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
       <c r="L43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="b">
         <v>0</v>
@@ -3969,13 +3969,13 @@
         <v>1</v>
       </c>
       <c r="O43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
         <v>0</v>
       </c>
       <c r="Q43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="b">
         <v>1</v>
@@ -3990,16 +3990,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="b">
         <v>1</v>
@@ -4015,22 +4015,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="b">
         <v>0</v>
       </c>
       <c r="N44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
@@ -4063,13 +4063,13 @@
         <v>1</v>
       </c>
       <c r="S44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="b">
         <v>0</v>
@@ -4078,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" t="b">
         <v>1</v>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -4103,10 +4103,10 @@
         <v>1</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -4115,10 +4115,10 @@
         <v>1</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="b">
         <v>1</v>
@@ -4145,22 +4145,22 @@
         <v>1</v>
       </c>
       <c r="S45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="b">
         <v>1</v>
       </c>
       <c r="U45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" t="b">
         <v>1</v>
       </c>
       <c r="W45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45" t="b">
         <v>1</v>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -4185,67 +4185,67 @@
         <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
       </c>
       <c r="M46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="b">
         <v>1</v>
       </c>
       <c r="S46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="b">
         <v>1</v>
       </c>
       <c r="W46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46" t="b">
         <v>1</v>
@@ -4261,22 +4261,22 @@
         <v>0</v>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -4285,52 +4285,52 @@
         <v>0</v>
       </c>
       <c r="K47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="b">
         <v>1</v>
       </c>
       <c r="S47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47" t="b">
         <v>0</v>
       </c>
       <c r="X47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -4340,46 +4340,46 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
       </c>
       <c r="I48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
       <c r="L48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
       </c>
       <c r="N48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
@@ -4400,16 +4400,16 @@
         <v>0</v>
       </c>
       <c r="V48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="b">
         <v>1</v>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -4431,10 +4431,10 @@
         <v>1</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="b">
         <v>1</v>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="b">
         <v>1</v>
@@ -4473,22 +4473,22 @@
         <v>1</v>
       </c>
       <c r="S49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="b">
         <v>1</v>
       </c>
       <c r="U49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" t="b">
         <v>1</v>
       </c>
       <c r="W49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49" t="b">
         <v>1</v>
@@ -4504,79 +4504,79 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
       <c r="L50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
       </c>
       <c r="N50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
         <v>0</v>
       </c>
       <c r="Q50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
       </c>
       <c r="T50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
       </c>
       <c r="Y50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4592,10 +4592,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -4616,13 +4616,13 @@
         <v>0</v>
       </c>
       <c r="L51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
       </c>
       <c r="N51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="b">
         <v>0</v>
@@ -4634,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="R51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
       </c>
       <c r="T51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="b">
         <v>0</v>
@@ -4652,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="X51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51" t="b">
         <v>0</v>
       </c>
       <c r="Z51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
